--- a/biology/Botanique/Rhynchospora_modesti-lucennoi/Rhynchospora_modesti-lucennoi.xlsx
+++ b/biology/Botanique/Rhynchospora_modesti-lucennoi/Rhynchospora_modesti-lucennoi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Rhynchospora modesti-lucennoi est une plante herbacée de la famille des Cyperaceae.
 </t>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Rhynchospora modesti-lucennoi est une plante vivace possédant des tiges de 30  à   80 cm, grêles et à section triangulaire. Les fleurs forment une panicule généralement composée[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Rhynchospora modesti-lucennoi est une plante vivace possédant des tiges de 30  à   80 cm, grêles et à section triangulaire. Les fleurs forment une panicule généralement composée.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette plante pousse dans des marécages tourbeux au Maroc, en Algérie, en Tunisie, au Portugal et en Espagne.
 </t>
@@ -573,7 +589,9 @@
           <t>Statut de protection</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Les populations, petites, éparses, totalisent moins de 1000 individus matures et couvrent moins de 500 km². Elles régressent en raison de l'assèchement des tourbières, de l'abaissement de la nappe phréatique et des modifications de cours d'eau. Voila pourquoi l'UICN considère cette espèce comme en danger.
 C'est une plante protégée en Algérie.
@@ -606,7 +624,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Schoenus rugosus Vahl
 Rynchospora glauca Vahl
